--- a/Stundenplan.xlsx
+++ b/Stundenplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Tutoreneinteilung" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="40">
   <si>
     <t>Gruppe 1</t>
   </si>
@@ -91,6 +91,54 @@
   </si>
   <si>
     <t>Mittagspause</t>
+  </si>
+  <si>
+    <t>Gruppe 1/3</t>
+  </si>
+  <si>
+    <t>Gruppe 2/4</t>
+  </si>
+  <si>
+    <t>Benjamin Klas</t>
+  </si>
+  <si>
+    <t>Benjamin Reischböck</t>
+  </si>
+  <si>
+    <t>Thomas Maier</t>
+  </si>
+  <si>
+    <t>René Ramge</t>
+  </si>
+  <si>
+    <t>Victoria Kayser</t>
+  </si>
+  <si>
+    <t>Mathematik</t>
+  </si>
+  <si>
+    <t>Florian Albrecht</t>
+  </si>
+  <si>
+    <t>Sabine Eckert</t>
+  </si>
+  <si>
+    <t>Christoph Marketsmüller</t>
+  </si>
+  <si>
+    <t>Christian Becker (PP)</t>
+  </si>
+  <si>
+    <t>Felix Dietrich</t>
+  </si>
+  <si>
+    <t>Diana Irmscher</t>
+  </si>
+  <si>
+    <t>Gruppe x/y</t>
+  </si>
+  <si>
+    <t>&lt;-- Werden beim Mathe-Treffen eingeteilt</t>
   </si>
 </sst>
 </file>
@@ -130,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -251,17 +299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -269,30 +306,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -300,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,31 +326,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,39 +380,20 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,13 +697,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -697,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,134 +816,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="14" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -847,10 +957,10 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -862,26 +972,26 @@
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
@@ -893,10 +1003,10 @@
       <c r="B18" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
@@ -906,18 +1016,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -937,33 +1047,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -977,10 +1087,10 @@
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -992,70 +1102,70 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1092,11 +1202,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1138,12 +1248,12 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1152,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1162,128 +1272,131 @@
     <col min="3" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="25" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0.57291666666666663</v>
       </c>
@@ -1300,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>0.63541666666666663</v>
       </c>
@@ -1317,14 +1430,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -1364,16 +1477,16 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1393,33 +1506,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1433,10 +1546,10 @@
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -1448,70 +1561,70 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1548,11 +1661,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1593,13 +1706,13 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1619,33 +1732,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1659,10 +1772,10 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1676,76 +1789,76 @@
       <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1782,11 +1895,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1825,15 +1938,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Stundenplan.xlsx
+++ b/Stundenplan.xlsx
@@ -132,13 +132,13 @@
     <t>Felix Dietrich</t>
   </si>
   <si>
-    <t>Diana Irmscher</t>
-  </si>
-  <si>
     <t>Gruppe x/y</t>
   </si>
   <si>
     <t>&lt;-- Werden beim Mathe-Treffen eingeteilt</t>
+  </si>
+  <si>
+    <t>Nino Reger</t>
   </si>
 </sst>
 </file>
@@ -335,31 +335,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,22 +394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +737,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -748,13 +748,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -817,12 +817,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -835,30 +835,30 @@
       <c r="B4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -910,27 +910,27 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
@@ -957,10 +957,10 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -972,26 +972,26 @@
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1003,10 +1003,10 @@
       <c r="B18" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1016,6 +1016,9 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C2:F2"/>
@@ -1025,9 +1028,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1048,12 +1048,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1087,10 +1087,10 @@
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -1102,26 +1102,26 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1133,10 +1133,10 @@
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1145,27 +1145,27 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1202,11 +1202,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1273,16 +1273,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
+      <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1310,14 +1310,14 @@
       <c r="B5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1325,76 +1325,76 @@
       <c r="B6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1431,11 +1431,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1507,12 +1507,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1546,10 +1546,10 @@
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -1561,26 +1561,26 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1592,10 +1592,10 @@
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1604,27 +1604,27 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1661,11 +1661,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1733,12 +1733,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1772,10 +1772,10 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1789,28 +1789,28 @@
       <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1824,10 +1824,10 @@
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1838,27 +1838,27 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1895,11 +1895,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">

--- a/Stundenplan.xlsx
+++ b/Stundenplan.xlsx
@@ -7,19 +7,18 @@
     <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="Tutoreneinteilung" sheetId="6" r:id="rId1"/>
-    <sheet name="Montag" sheetId="1" r:id="rId2"/>
-    <sheet name="Dienstag" sheetId="2" r:id="rId3"/>
-    <sheet name="Mittwoch" sheetId="3" r:id="rId4"/>
-    <sheet name="Donnerstag" sheetId="4" r:id="rId5"/>
-    <sheet name="Freitag" sheetId="5" r:id="rId6"/>
+    <sheet name="Montag" sheetId="1" r:id="rId1"/>
+    <sheet name="Dienstag" sheetId="2" r:id="rId2"/>
+    <sheet name="Mittwoch" sheetId="3" r:id="rId3"/>
+    <sheet name="Donnerstag" sheetId="4" r:id="rId4"/>
+    <sheet name="Freitag" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="24">
   <si>
     <t>Gruppe 1</t>
   </si>
@@ -91,54 +90,6 @@
   </si>
   <si>
     <t>Mittagspause</t>
-  </si>
-  <si>
-    <t>Gruppe 1/3</t>
-  </si>
-  <si>
-    <t>Gruppe 2/4</t>
-  </si>
-  <si>
-    <t>Benjamin Klas</t>
-  </si>
-  <si>
-    <t>Benjamin Reischböck</t>
-  </si>
-  <si>
-    <t>Thomas Maier</t>
-  </si>
-  <si>
-    <t>René Ramge</t>
-  </si>
-  <si>
-    <t>Victoria Kayser</t>
-  </si>
-  <si>
-    <t>Mathematik</t>
-  </si>
-  <si>
-    <t>Florian Albrecht</t>
-  </si>
-  <si>
-    <t>Sabine Eckert</t>
-  </si>
-  <si>
-    <t>Christoph Marketsmüller</t>
-  </si>
-  <si>
-    <t>Christian Becker (PP)</t>
-  </si>
-  <si>
-    <t>Felix Dietrich</t>
-  </si>
-  <si>
-    <t>Gruppe x/y</t>
-  </si>
-  <si>
-    <t>&lt;-- Werden beim Mathe-Treffen eingeteilt</t>
-  </si>
-  <si>
-    <t>Nino Reger</t>
   </si>
 </sst>
 </file>
@@ -339,6 +290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,12 +318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,117 +648,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -817,12 +660,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -854,11 +697,11 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -910,27 +753,27 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
@@ -978,11 +821,11 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -1016,11 +859,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1028,13 +866,18 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
@@ -1048,12 +891,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1118,10 +961,10 @@
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1133,10 +976,10 @@
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1145,20 +988,20 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
@@ -1260,7 +1103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -1277,12 +1120,12 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1310,10 +1153,10 @@
       <c r="B5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1325,10 +1168,10 @@
       <c r="B6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1347,47 +1190,47 @@
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
@@ -1493,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
@@ -1507,12 +1350,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1577,10 +1420,10 @@
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1592,10 +1435,10 @@
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1604,20 +1447,20 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
@@ -1719,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
@@ -1733,12 +1576,12 @@
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1807,10 +1650,10 @@
       <c r="B8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1824,10 +1667,10 @@
       <c r="B9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1838,20 +1681,20 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>

--- a/Stundenplan.xlsx
+++ b/Stundenplan.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Montag" sheetId="1" r:id="rId1"/>
     <sheet name="Dienstag" sheetId="2" r:id="rId2"/>
     <sheet name="Mittwoch" sheetId="3" r:id="rId3"/>
-    <sheet name="Donnerstag" sheetId="4" r:id="rId4"/>
-    <sheet name="Freitag" sheetId="5" r:id="rId5"/>
+    <sheet name="Donnerstag" sheetId="6" r:id="rId4"/>
+    <sheet name="Freitag" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="27">
   <si>
     <t>Gruppe 1</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Mittagspause</t>
+  </si>
+  <si>
+    <t>Gruppe 5</t>
+  </si>
+  <si>
+    <t>Gruppe 6</t>
+  </si>
+  <si>
+    <t>R2.010</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -260,11 +269,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,9 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,40 +303,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,6 +367,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -648,229 +682,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F18"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="G13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
+  <mergeCells count="30">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -879,224 +1015,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="E16" s="21"/>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B10:F10"/>
+  <mergeCells count="28">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1105,231 +1347,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="E13" s="21"/>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="22" t="s">
         <v>20</v>
       </c>
+      <c r="I17" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1338,224 +1672,330 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="E16" s="21"/>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B7:F7"/>
+  <mergeCells count="28">
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1564,232 +2004,335 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="E5" s="21"/>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="E13" s="21"/>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="22" t="s">
         <v>20</v>
       </c>
+      <c r="I17" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="32">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Stundenplan.xlsx
+++ b/Stundenplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Montag" sheetId="1" r:id="rId1"/>
@@ -309,6 +309,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,9 +345,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,12 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,24 +376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -698,16 +698,16 @@
   <sheetData>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -724,158 +724,158 @@
       <c r="A4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="7" t="s">
         <v>25</v>
       </c>
@@ -887,19 +887,19 @@
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -908,48 +908,48 @@
       <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="21"/>
+      <c r="G17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="10" t="s">
         <v>9</v>
       </c>
@@ -958,25 +958,40 @@
       <c r="A18" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G17:H17"/>
@@ -992,21 +1007,6 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1031,16 +1031,16 @@
   <sheetData>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1058,20 +1058,20 @@
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1083,19 +1083,19 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21"/>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1104,48 +1104,48 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="21"/>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1154,57 +1154,57 @@
       <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1213,21 +1213,21 @@
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="21"/>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1236,52 +1236,52 @@
       <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="14"/>
       <c r="I16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1290,35 +1290,31 @@
       <c r="A17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D16:E16"/>
@@ -1335,10 +1331,14 @@
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1364,15 +1364,15 @@
   <sheetData>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,20 +1389,20 @@
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1411,19 +1411,19 @@
       <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="21"/>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1432,33 +1432,33 @@
       <c r="A6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1467,19 +1467,19 @@
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21"/>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1488,68 +1488,70 @@
       <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="21"/>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1558,35 +1560,35 @@
       <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1595,21 +1597,21 @@
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="C16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1618,30 +1620,26 @@
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="C16:D16"/>
@@ -1652,6 +1650,12 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B5:E5"/>
@@ -1662,8 +1666,6 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1688,16 +1690,16 @@
   <sheetData>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1715,20 +1717,20 @@
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1740,19 +1742,19 @@
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21"/>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1761,48 +1763,48 @@
       <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="21"/>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1811,57 +1813,57 @@
       <c r="A9" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1870,21 +1872,21 @@
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="21"/>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1893,52 +1895,52 @@
       <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="14"/>
       <c r="I16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1947,39 +1949,34 @@
       <c r="A17" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -1989,13 +1986,18 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2006,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2021,15 +2023,15 @@
   <sheetData>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,20 +2048,20 @@
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
@@ -2068,21 +2070,21 @@
       <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="21"/>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2091,35 +2093,35 @@
       <c r="A6" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2128,21 +2130,21 @@
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21"/>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2151,70 +2153,72 @@
       <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="21"/>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2223,35 +2227,35 @@
       <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -2260,21 +2264,21 @@
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="C16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2283,30 +2287,32 @@
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
@@ -2317,22 +2323,20 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:G11"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
